--- a/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section01/숨겨진영역제외하고복사(준비).xlsx
+++ b/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section01/숨겨진영역제외하고복사(준비).xlsx
@@ -1,31 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_집필원고\직장인실무2019\Part1\Section01\Sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song-yonghun/Study/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67971D9-E9B3-418C-B3E7-EE20D4B6634B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21865A23-A12F-7246-89E3-97FC0D33D3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15280" windowHeight="7520" xr2:uid="{488F0FA7-7C91-4DFE-B129-1DA5D4F87F18}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{488F0FA7-7C91-4DFE-B129-1DA5D4F87F18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="34">
   <si>
     <t>2019년 4월 재고 조사 현황</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -400,75 +413,69 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -799,360 +806,360 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6873AADF-AEFD-47A0-A1AE-FCB05EC6F81B}">
   <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E9"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="2" spans="2:8" ht="26.5" thickBot="1">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:8" ht="18" thickBot="1"/>
+    <row r="2" spans="2:8" ht="28" thickBot="1">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="6">
-        <v>43563</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>160</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>95</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="13">
-        <v>43563</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>130</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="17">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="13">
-        <v>43563</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>250</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <v>215</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="13">
-        <v>43563</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>210</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B9" s="19" t="s">
+    <row r="9" spans="2:8" ht="16.5" hidden="1" customHeight="1">
+      <c r="B9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="18">
         <f>SUBTOTAL(1,F5:F8)</f>
         <v>187.5</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="19">
         <f>SUBTOTAL(1,G5:G8)</f>
         <v>142.5</v>
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="13">
-        <v>43563</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="D10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="17">
-        <v>150</v>
-      </c>
-      <c r="G10" s="18">
+      <c r="F10" s="16">
+        <v>150</v>
+      </c>
+      <c r="G10" s="17">
         <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="13">
-        <v>43563</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="16" t="s">
+      <c r="D11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="17">
-        <v>150</v>
-      </c>
-      <c r="G11" s="18">
+      <c r="F11" s="16">
+        <v>150</v>
+      </c>
+      <c r="G11" s="17">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="13">
-        <v>43563</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>200</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <v>189</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="13">
-        <v>43563</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="17">
-        <v>150</v>
-      </c>
-      <c r="G13" s="18">
+      <c r="F13" s="16">
+        <v>150</v>
+      </c>
+      <c r="G13" s="17">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="13">
-        <v>43563</v>
-      </c>
-      <c r="C14" s="14" t="s">
+      <c r="B14" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="17">
-        <v>150</v>
-      </c>
-      <c r="G14" s="18">
+      <c r="F14" s="16">
+        <v>150</v>
+      </c>
+      <c r="G14" s="17">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="13">
-        <v>43563</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <v>180</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <v>150</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="13">
-        <v>43563</v>
-      </c>
-      <c r="C16" s="14" t="s">
+      <c r="B16" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="D16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="17">
-        <v>150</v>
-      </c>
-      <c r="G16" s="18">
+      <c r="F16" s="16">
+        <v>150</v>
+      </c>
+      <c r="G16" s="17">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B17" s="23" t="s">
+    <row r="17" spans="2:7" ht="16.5" hidden="1" customHeight="1">
+      <c r="B17" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="21">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="18">
         <f>SUBTOTAL(1,F10:F16)</f>
         <v>161.42857142857142</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="19">
         <f>SUBTOTAL(1,G10:G16)</f>
         <v>89.857142857142861</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="13">
-        <v>43563</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <v>180</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="17">
         <v>120</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="13">
-        <v>43563</v>
-      </c>
-      <c r="C19" s="14" t="s">
+      <c r="B19" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="16">
         <v>230</v>
       </c>
-      <c r="G19" s="18">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B20" s="25" t="s">
+      <c r="G19" s="17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="16.5" hidden="1" customHeight="1">
+      <c r="B20" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="21">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="18">
         <f>SUBTOTAL(1,F18:F19)</f>
         <v>205</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="19">
         <f>SUBTOTAL(1,G18:G19)</f>
         <v>135</v>
       </c>
@@ -1168,4 +1175,649 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923F1931-CF67-6A40-BE54-D452913C116F}">
+  <dimension ref="B3:G19"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetData>
+    <row r="3" spans="2:7">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="9">
+        <v>160</v>
+      </c>
+      <c r="G4" s="10">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="16">
+        <v>130</v>
+      </c>
+      <c r="G5" s="17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="16">
+        <v>250</v>
+      </c>
+      <c r="G6" s="17">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="16">
+        <v>210</v>
+      </c>
+      <c r="G7" s="17">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="18">
+        <f>SUBTOTAL(1,F4:F7)</f>
+        <v>187.5</v>
+      </c>
+      <c r="G8" s="19">
+        <f>SUBTOTAL(1,G4:G7)</f>
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="16">
+        <v>150</v>
+      </c>
+      <c r="G9" s="17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="16">
+        <v>150</v>
+      </c>
+      <c r="G10" s="17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="16">
+        <v>200</v>
+      </c>
+      <c r="G11" s="17">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="16">
+        <v>150</v>
+      </c>
+      <c r="G12" s="17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="16">
+        <v>150</v>
+      </c>
+      <c r="G13" s="17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="16">
+        <v>180</v>
+      </c>
+      <c r="G14" s="17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="16">
+        <v>150</v>
+      </c>
+      <c r="G15" s="17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="18">
+        <f>SUBTOTAL(1,F9:F15)</f>
+        <v>161.42857142857142</v>
+      </c>
+      <c r="G16" s="19">
+        <f>SUBTOTAL(1,G9:G15)</f>
+        <v>89.857142857142861</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="16">
+        <v>180</v>
+      </c>
+      <c r="G17" s="17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="16">
+        <v>230</v>
+      </c>
+      <c r="G18" s="17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="18">
+        <f>SUBTOTAL(1,F17:F18)</f>
+        <v>205</v>
+      </c>
+      <c r="G19" s="19">
+        <f>SUBTOTAL(1,G17:G18)</f>
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B19:E19"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5073259-149B-4346-9772-F0FFB33700FB}">
+  <dimension ref="B3:G16"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetData>
+    <row r="3" spans="2:7">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="9">
+        <v>160</v>
+      </c>
+      <c r="G4" s="10">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="16">
+        <v>130</v>
+      </c>
+      <c r="G5" s="17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="16">
+        <v>250</v>
+      </c>
+      <c r="G6" s="17">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="16">
+        <v>210</v>
+      </c>
+      <c r="G7" s="17">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="16">
+        <v>150</v>
+      </c>
+      <c r="G8" s="17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="16">
+        <v>150</v>
+      </c>
+      <c r="G9" s="17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="16">
+        <v>200</v>
+      </c>
+      <c r="G10" s="17">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="16">
+        <v>150</v>
+      </c>
+      <c r="G11" s="17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="16">
+        <v>150</v>
+      </c>
+      <c r="G12" s="17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="16">
+        <v>180</v>
+      </c>
+      <c r="G13" s="17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="16">
+        <v>150</v>
+      </c>
+      <c r="G14" s="17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="16">
+        <v>180</v>
+      </c>
+      <c r="G15" s="17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="16">
+        <v>230</v>
+      </c>
+      <c r="G16" s="17">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>